--- a/data/testscriptOfMyCampaigns.xlsx
+++ b/data/testscriptOfMyCampaigns.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve"> CampaignName</t>
   </si>
@@ -30,22 +30,13 @@
     <t>Baristo</t>
   </si>
   <si>
-    <t>CampaignNo</t>
-  </si>
-  <si>
     <t>CampaignName</t>
   </si>
   <si>
-    <t>CAM1</t>
-  </si>
-  <si>
     <t>Aristotal</t>
   </si>
   <si>
-    <t>CAM4</t>
-  </si>
-  <si>
-    <t>Manthas</t>
+    <t>Expected close date</t>
   </si>
 </sst>
 </file>
@@ -92,9 +83,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -431,7 +423,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,20 +444,18 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>44307</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
